--- a/data/trans_camb/P31_3_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P31_3_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,15 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +547,27 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +657,15 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,16</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>2,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-4,86</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>4,21</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>-9,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,08</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-6,38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-5,71</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,57</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-5,02</t>
         </is>
       </c>
     </row>
@@ -639,32 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 10,41</t>
+          <t>-2,1; 9,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 8,62</t>
+          <t>-2,72; 8,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,93</t>
+          <t>-11,51; 2,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 1,36</t>
+          <t>-1,81; 10,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 6,25</t>
+          <t>-14,12; -4,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,82</t>
+          <t>-1,12; 5,18</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 1,66</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-10,23; -2,35</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 8,7</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 2,79</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 6,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 3,86</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-9,11; -1,69</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 7,93</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-8,14; -2,33</t>
         </is>
       </c>
     </row>
@@ -677,32 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>-6,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,38%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>-11,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>2,17%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-2,35%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-7,22%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>6,07%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-6,95%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,98%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-5,84%</t>
         </is>
       </c>
     </row>
@@ -715,32 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 14,76</t>
+          <t>-2,65; 13,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 12,04</t>
+          <t>-3,52; 12,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,7</t>
+          <t>-14,83; 2,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,57</t>
+          <t>-2,44; 15,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 7,8</t>
+          <t>-16,35; -5,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 4,82</t>
+          <t>-1,26; 5,93</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-6,05; 1,93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-11,46; -2,7</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1,35; 10,92</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-4,47; 3,26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 7,76</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 4,82</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-10,92; -2,06</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,22; 10,68</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-9,35; -2,74</t>
         </is>
       </c>
     </row>
@@ -757,32 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,02</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>-9,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-5,83</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-2,15</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,44</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-5,56</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,2</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-4,21</t>
         </is>
       </c>
     </row>
@@ -795,32 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 5,77</t>
+          <t>-5,85; 5,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 4,6</t>
+          <t>-6,24; 4,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,85</t>
+          <t>-15,16; -2,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 3,94</t>
+          <t>1,55; 16,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 4,75</t>
+          <t>-12,59; 0,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,67</t>
+          <t>-1,88; 5,77</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,98; 2,87</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 1,78</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,12; 7,26</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-8,0; 3,56</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 4,08</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 2,34</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-9,36; -1,91</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,8; 9,65</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-8,84; 0,02</t>
         </is>
       </c>
     </row>
@@ -833,32 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>-0,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,25%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>-11,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,59%</t>
+          <t>12,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>-6,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,92%</t>
+          <t>2,13%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-2,42%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-2,67%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-1,02%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-6,54%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>6,54%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-4,74%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 7,48</t>
+          <t>-6,93; 6,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 5,89</t>
+          <t>-7,44; 6,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 8,08</t>
+          <t>-18,63; -2,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 4,61</t>
+          <t>2,14; 23,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 5,71</t>
+          <t>-13,91; 0,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 3,2</t>
+          <t>-2,05; 6,69</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-5,55; 3,26</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 2,06</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 8,55</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; 3,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 4,92</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 2,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-10,93; -2,29</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 12,55</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-9,75; -0,05</t>
         </is>
       </c>
     </row>
@@ -913,32 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>6,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>-6,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-7,23</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-6,76</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -951,32 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 14,2</t>
+          <t>-1,58; 15,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 10,06</t>
+          <t>-5,84; 11,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 9,26</t>
+          <t>-17,08; 4,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 8,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 7,16</t>
+          <t>-3,6; 9,99</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 8,18</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-18,44; 1,26</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 10,48</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 7,24</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-14,1; 0,18</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -989,32 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,67%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>-7,47%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-8,05%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-7,75%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 17,73</t>
+          <t>-1,57; 19,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 12,61</t>
+          <t>-6,52; 14,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 10,77</t>
+          <t>-19,4; 5,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 10,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 10,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 8,5</t>
+          <t>-3,89; 11,94</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-5,28; 9,62</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-19,82; 1,31</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 12,32</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 8,65</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-16,22; 0,13</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,31</t>
+          <t>-6,76</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>4,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-4,81</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,51</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-5,77</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,76</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-4,82</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 6,91</t>
+          <t>-1,27; 6,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 5,24</t>
+          <t>-2,07; 5,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,21; 4,54</t>
+          <t>-10,97; -2,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 1,48</t>
+          <t>-0,6; 8,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 4,7</t>
+          <t>-12,87; -4,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,62</t>
+          <t>-0,08; 4,49</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 1,34</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; -2,06</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 6,35</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 1,81</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,17; 4,26</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 2,27</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-8,38; -3,0</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 6,4</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; -2,41</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>-8,58%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-1,18%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>-10,15%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-5,43%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4,18%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-1,27%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,03%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-6,87%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>4,81%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-5,56%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1937,84 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 9,16</t>
+          <t>-1,59; 8,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 6,9</t>
+          <t>-2,54; 6,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,23; 5,22</t>
+          <t>-13,79; -3,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,67</t>
+          <t>-0,87; 11,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 5,7</t>
+          <t>-14,97; -5,65</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 3,22</t>
+          <t>-0,1; 5,14</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-3,94; 1,52</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-8,47; -2,35</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 7,69</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 2,08</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 5,16</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 2,73</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-9,86; -3,63</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 8,33</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-8,25; -2,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1216,12 +2022,12 @@
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
